--- a/data/sp500_tickerlist.xlsx
+++ b/data/sp500_tickerlist.xlsx
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>LabCorp</t>
+          <t>Labcorp</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Norfolk Southern Railway</t>
+          <t>Norfolk Southern</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Pinnacle West</t>
+          <t>Pinnacle West Capital</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
